--- a/REGULAR/OJT/CANDING, REYNAN C..xlsx
+++ b/REGULAR/OJT/CANDING, REYNAN C..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35FEF5A-DCDE-48A4-9610-4BE152BFC5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5706DC8-2320-4411-B407-6430A88EB0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2556,7 +2556,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2956,7 +2956,7 @@
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2100" activePane="bottomLeft"/>
       <selection activeCell="M7" sqref="M7"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3004,7 +3004,9 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="58">
+        <v>44743</v>
+      </c>
       <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
@@ -3117,7 +3119,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>10</v>
+        <v>18.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3127,7 +3129,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3156,7 +3158,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
-        <v>44743</v>
+        <v>44773</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="13">
@@ -3176,7 +3178,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
-        <v>44774</v>
+        <v>44804</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="13">
@@ -3196,7 +3198,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
-        <v>44805</v>
+        <v>44834</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="13">
@@ -3216,7 +3218,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
-        <v>44835</v>
+        <v>44865</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="13">
@@ -3236,7 +3238,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
-        <v>44866</v>
+        <v>44895</v>
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="13">
@@ -3256,7 +3258,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
-        <v>44896</v>
+        <v>44926</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="13">
@@ -3294,7 +3296,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13">
@@ -3314,7 +3316,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="13">
@@ -3334,10 +3336,12 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B20" s="20"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -3349,16 +3353,18 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B21" s="20"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D21" s="39"/>
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G21" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H21" s="39"/>
       <c r="I21" s="9"/>
@@ -3367,16 +3373,18 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B22" s="20"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D22" s="39"/>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G22" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
@@ -3385,16 +3393,18 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B23" s="20"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D23" s="39"/>
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
-      <c r="G23" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G23" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H23" s="39"/>
       <c r="I23" s="9"/>
@@ -3403,16 +3413,18 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B24" s="20"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D24" s="39"/>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
-      <c r="G24" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G24" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
@@ -3421,16 +3433,18 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B25" s="20"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
@@ -3439,16 +3453,18 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B26" s="20"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G26" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
@@ -3457,7 +3473,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -3475,7 +3491,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
-        <v>45231</v>
+        <v>45260</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -3493,7 +3509,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
-        <v>45261</v>
+        <v>45291</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
